--- a/litery.xlsx
+++ b/litery.xlsx
@@ -172,7 +172,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S49" activeCellId="0" sqref="S49"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -277,7 +277,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -328,7 +328,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>0</v>
